--- a/pred_ohlcv/54/2019-11-01 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-11-01 SNT ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H144"/>
+  <dimension ref="A1:I124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -420,12 +425,15 @@
         <v>15.5</v>
       </c>
       <c r="F2" t="n">
-        <v>662.064</v>
+        <v>61302.3769</v>
       </c>
       <c r="G2" t="n">
-        <v>15.59333333333333</v>
+        <v>15.58666666666667</v>
       </c>
       <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -446,12 +454,15 @@
         <v>15.5</v>
       </c>
       <c r="F3" t="n">
-        <v>50000</v>
+        <v>662.064</v>
       </c>
       <c r="G3" t="n">
-        <v>15.595</v>
+        <v>15.59333333333333</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -475,9 +486,12 @@
         <v>50000</v>
       </c>
       <c r="G4" t="n">
-        <v>15.59833333333333</v>
+        <v>15.595</v>
       </c>
       <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -486,24 +500,27 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="C5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D5" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E5" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F5" t="n">
-        <v>45191.6779</v>
+        <v>50000</v>
       </c>
       <c r="G5" t="n">
-        <v>15.6</v>
+        <v>15.59833333333333</v>
       </c>
       <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -512,24 +529,27 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="C6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="D6" t="n">
-        <v>15.5</v>
+        <v>15.6</v>
       </c>
       <c r="E6" t="n">
-        <v>15.5</v>
+        <v>15.4</v>
       </c>
       <c r="F6" t="n">
-        <v>87</v>
+        <v>45191.6779</v>
       </c>
       <c r="G6" t="n">
-        <v>15.60333333333334</v>
+        <v>15.6</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,24 +558,27 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="C7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="D7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="E7" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="F7" t="n">
-        <v>61000</v>
+        <v>87</v>
       </c>
       <c r="G7" t="n">
-        <v>15.60166666666667</v>
+        <v>15.60333333333334</v>
       </c>
       <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -576,12 +599,15 @@
         <v>15.4</v>
       </c>
       <c r="F8" t="n">
-        <v>101114.922</v>
+        <v>61000</v>
       </c>
       <c r="G8" t="n">
-        <v>15.6</v>
+        <v>15.60166666666667</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -602,12 +628,15 @@
         <v>15.4</v>
       </c>
       <c r="F9" t="n">
-        <v>3243.5805</v>
+        <v>101114.922</v>
       </c>
       <c r="G9" t="n">
-        <v>15.59666666666667</v>
+        <v>15.6</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -628,12 +657,15 @@
         <v>15.4</v>
       </c>
       <c r="F10" t="n">
-        <v>5248.6922</v>
+        <v>3243.5805</v>
       </c>
       <c r="G10" t="n">
-        <v>15.59333333333333</v>
+        <v>15.59666666666667</v>
       </c>
       <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -642,24 +674,27 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="C11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="D11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="E11" t="n">
-        <v>15.3</v>
+        <v>15.4</v>
       </c>
       <c r="F11" t="n">
-        <v>26128.2136</v>
+        <v>5248.6922</v>
       </c>
       <c r="G11" t="n">
-        <v>15.585</v>
+        <v>15.59333333333333</v>
       </c>
       <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
     </row>
@@ -668,24 +703,27 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="C12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="D12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="E12" t="n">
-        <v>15.5</v>
+        <v>15.3</v>
       </c>
       <c r="F12" t="n">
-        <v>10879.489</v>
+        <v>26128.2136</v>
       </c>
       <c r="G12" t="n">
-        <v>15.58</v>
+        <v>15.585</v>
       </c>
       <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
         <v>0</v>
       </c>
     </row>
@@ -697,21 +735,24 @@
         <v>15.5</v>
       </c>
       <c r="C13" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="D13" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="E13" t="n">
         <v>15.5</v>
       </c>
       <c r="F13" t="n">
-        <v>21000</v>
+        <v>10879.489</v>
       </c>
       <c r="G13" t="n">
-        <v>15.57833333333333</v>
+        <v>15.58</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -720,24 +761,27 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="C14" t="n">
         <v>15.6</v>
       </c>
-      <c r="C14" t="n">
-        <v>15.7</v>
-      </c>
       <c r="D14" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E14" t="n">
-        <v>15.6</v>
+        <v>15.5</v>
       </c>
       <c r="F14" t="n">
-        <v>9523</v>
+        <v>21000</v>
       </c>
       <c r="G14" t="n">
-        <v>15.575</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -746,24 +790,27 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C15" t="n">
         <v>15.7</v>
       </c>
       <c r="D15" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E15" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F15" t="n">
-        <v>232799.4393</v>
+        <v>9523</v>
       </c>
       <c r="G15" t="n">
         <v>15.575</v>
       </c>
       <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -775,21 +822,24 @@
         <v>15.8</v>
       </c>
       <c r="C16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D16" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E16" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F16" t="n">
-        <v>230746.6097</v>
+        <v>232799.4393</v>
       </c>
       <c r="G16" t="n">
-        <v>15.57666666666667</v>
+        <v>15.575</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -804,18 +854,21 @@
         <v>15.8</v>
       </c>
       <c r="D17" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E17" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F17" t="n">
-        <v>65687.48209999999</v>
+        <v>230746.6097</v>
       </c>
       <c r="G17" t="n">
-        <v>15.57833333333333</v>
+        <v>15.57666666666667</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -833,15 +886,18 @@
         <v>15.8</v>
       </c>
       <c r="E18" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F18" t="n">
-        <v>14685.712</v>
+        <v>65687.48209999999</v>
       </c>
       <c r="G18" t="n">
-        <v>15.58166666666667</v>
+        <v>15.57833333333333</v>
       </c>
       <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -856,18 +912,21 @@
         <v>15.8</v>
       </c>
       <c r="D19" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E19" t="n">
-        <v>15.5</v>
+        <v>15.8</v>
       </c>
       <c r="F19" t="n">
-        <v>568375.7010999999</v>
+        <v>14685.712</v>
       </c>
       <c r="G19" t="n">
-        <v>15.585</v>
+        <v>15.58166666666667</v>
       </c>
       <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -879,22 +938,25 @@
         <v>15.8</v>
       </c>
       <c r="C20" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D20" t="n">
         <v>15.9</v>
       </c>
       <c r="E20" t="n">
-        <v>15.8</v>
+        <v>15.5</v>
       </c>
       <c r="F20" t="n">
-        <v>120604.6335</v>
+        <v>568375.7010999999</v>
       </c>
       <c r="G20" t="n">
-        <v>15.58833333333333</v>
+        <v>15.585</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -905,22 +967,25 @@
         <v>15.8</v>
       </c>
       <c r="C21" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D21" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E21" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F21" t="n">
-        <v>4404.6248</v>
+        <v>120604.6335</v>
       </c>
       <c r="G21" t="n">
         <v>15.58833333333333</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -931,22 +996,25 @@
         <v>15.8</v>
       </c>
       <c r="C22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D22" t="n">
         <v>15.8</v>
       </c>
       <c r="E22" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F22" t="n">
-        <v>8260.712</v>
+        <v>4404.6248</v>
       </c>
       <c r="G22" t="n">
-        <v>15.59166666666666</v>
+        <v>15.58833333333333</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -966,12 +1034,15 @@
         <v>15.8</v>
       </c>
       <c r="F23" t="n">
-        <v>6195.5379</v>
+        <v>8260.712</v>
       </c>
       <c r="G23" t="n">
-        <v>15.59499999999999</v>
+        <v>15.59166666666666</v>
       </c>
       <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -980,24 +1051,27 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E24" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F24" t="n">
-        <v>202298</v>
+        <v>6195.5379</v>
       </c>
       <c r="G24" t="n">
-        <v>15.59666666666666</v>
+        <v>15.59499999999999</v>
       </c>
       <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1015,15 +1089,18 @@
         <v>15.7</v>
       </c>
       <c r="E25" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F25" t="n">
-        <v>64297.3342</v>
+        <v>202298</v>
       </c>
       <c r="G25" t="n">
-        <v>15.59833333333333</v>
+        <v>15.59666666666666</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1041,15 +1118,18 @@
         <v>15.7</v>
       </c>
       <c r="E26" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F26" t="n">
-        <v>50313.04</v>
+        <v>64297.3342</v>
       </c>
       <c r="G26" t="n">
-        <v>15.60166666666666</v>
+        <v>15.59833333333333</v>
       </c>
       <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1070,12 +1150,15 @@
         <v>15.7</v>
       </c>
       <c r="F27" t="n">
-        <v>3256.3381</v>
+        <v>50313.04</v>
       </c>
       <c r="G27" t="n">
-        <v>15.60333333333333</v>
+        <v>15.60166666666666</v>
       </c>
       <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1087,21 +1170,24 @@
         <v>15.7</v>
       </c>
       <c r="C28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D28" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E28" t="n">
         <v>15.7</v>
       </c>
       <c r="F28" t="n">
-        <v>7894.8585</v>
+        <v>3256.3381</v>
       </c>
       <c r="G28" t="n">
         <v>15.60333333333333</v>
       </c>
       <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1113,21 +1199,24 @@
         <v>15.7</v>
       </c>
       <c r="C29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D29" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E29" t="n">
         <v>15.7</v>
       </c>
       <c r="F29" t="n">
-        <v>253914.5641</v>
+        <v>7894.8585</v>
       </c>
       <c r="G29" t="n">
-        <v>15.60166666666666</v>
+        <v>15.60333333333333</v>
       </c>
       <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,21 +1228,24 @@
         <v>15.7</v>
       </c>
       <c r="C30" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D30" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E30" t="n">
         <v>15.7</v>
       </c>
       <c r="F30" t="n">
-        <v>288534.0354</v>
+        <v>253914.5641</v>
       </c>
       <c r="G30" t="n">
-        <v>15.605</v>
+        <v>15.60166666666666</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,24 +1254,27 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D31" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E31" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F31" t="n">
-        <v>47800</v>
+        <v>288534.0354</v>
       </c>
       <c r="G31" t="n">
-        <v>15.60666666666666</v>
+        <v>15.605</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1194,18 +1289,21 @@
         <v>15.8</v>
       </c>
       <c r="D32" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E32" t="n">
         <v>15.8</v>
       </c>
       <c r="F32" t="n">
-        <v>122512.9366</v>
+        <v>47800</v>
       </c>
       <c r="G32" t="n">
-        <v>15.60999999999999</v>
+        <v>15.60666666666666</v>
       </c>
       <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1214,10 +1312,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C33" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D33" t="n">
         <v>15.9</v>
@@ -1226,12 +1324,15 @@
         <v>15.8</v>
       </c>
       <c r="F33" t="n">
-        <v>513648.0517</v>
+        <v>122512.9366</v>
       </c>
       <c r="G33" t="n">
-        <v>15.61333333333332</v>
+        <v>15.60999999999999</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1243,21 +1344,24 @@
         <v>15.9</v>
       </c>
       <c r="C34" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D34" t="n">
         <v>15.9</v>
       </c>
       <c r="E34" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F34" t="n">
-        <v>212469.5294</v>
+        <v>513648.0517</v>
       </c>
       <c r="G34" t="n">
-        <v>15.61666666666666</v>
+        <v>15.61333333333332</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1266,24 +1370,27 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C35" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D35" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E35" t="n">
         <v>15.7</v>
       </c>
       <c r="F35" t="n">
-        <v>1001309.8232</v>
+        <v>212469.5294</v>
       </c>
       <c r="G35" t="n">
-        <v>15.62333333333332</v>
+        <v>15.61666666666666</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1292,24 +1399,27 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C36" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D36" t="n">
-        <v>15.9</v>
+        <v>16</v>
       </c>
       <c r="E36" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F36" t="n">
-        <v>140683.5268</v>
+        <v>1001309.8232</v>
       </c>
       <c r="G36" t="n">
-        <v>15.62666666666666</v>
+        <v>15.62333333333332</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1318,7 +1428,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C37" t="n">
         <v>15.8</v>
@@ -1330,12 +1440,15 @@
         <v>15.8</v>
       </c>
       <c r="F37" t="n">
-        <v>99233.59729999999</v>
+        <v>140683.5268</v>
       </c>
       <c r="G37" t="n">
-        <v>15.62999999999999</v>
+        <v>15.62666666666666</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1356,12 +1469,15 @@
         <v>15.8</v>
       </c>
       <c r="F38" t="n">
-        <v>403904.4489</v>
+        <v>99233.59729999999</v>
       </c>
       <c r="G38" t="n">
-        <v>15.63333333333332</v>
+        <v>15.62999999999999</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1373,21 +1489,24 @@
         <v>15.8</v>
       </c>
       <c r="C39" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D39" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E39" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F39" t="n">
-        <v>84888.22779999999</v>
+        <v>403904.4489</v>
       </c>
       <c r="G39" t="n">
-        <v>15.63499999999999</v>
+        <v>15.63333333333332</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1396,10 +1515,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C40" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D40" t="n">
         <v>15.8</v>
@@ -1408,12 +1527,15 @@
         <v>15.7</v>
       </c>
       <c r="F40" t="n">
-        <v>30120</v>
+        <v>84888.22779999999</v>
       </c>
       <c r="G40" t="n">
-        <v>15.63833333333332</v>
+        <v>15.63499999999999</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1422,7 +1544,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C41" t="n">
         <v>15.8</v>
@@ -1431,15 +1553,18 @@
         <v>15.8</v>
       </c>
       <c r="E41" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F41" t="n">
-        <v>78367</v>
+        <v>30120</v>
       </c>
       <c r="G41" t="n">
-        <v>15.64166666666665</v>
+        <v>15.63833333333332</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1448,24 +1573,27 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E42" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F42" t="n">
-        <v>68081</v>
+        <v>78367</v>
       </c>
       <c r="G42" t="n">
-        <v>15.64333333333332</v>
+        <v>15.64166666666665</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1480,18 +1608,21 @@
         <v>15.7</v>
       </c>
       <c r="D43" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E43" t="n">
         <v>15.7</v>
       </c>
       <c r="F43" t="n">
-        <v>159458.5294</v>
+        <v>68081</v>
       </c>
       <c r="G43" t="n">
-        <v>15.64499999999999</v>
+        <v>15.64333333333332</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1503,21 +1634,24 @@
         <v>15.7</v>
       </c>
       <c r="C44" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D44" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E44" t="n">
         <v>15.7</v>
       </c>
       <c r="F44" t="n">
-        <v>206526.9533</v>
+        <v>159458.5294</v>
       </c>
       <c r="G44" t="n">
-        <v>15.64833333333332</v>
+        <v>15.64499999999999</v>
       </c>
       <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1526,24 +1660,27 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C45" t="n">
         <v>15.8</v>
       </c>
       <c r="D45" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E45" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F45" t="n">
-        <v>62614.127</v>
+        <v>206526.9533</v>
       </c>
       <c r="G45" t="n">
-        <v>15.65166666666665</v>
+        <v>15.64833333333332</v>
       </c>
       <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1564,12 +1701,15 @@
         <v>15.8</v>
       </c>
       <c r="F46" t="n">
-        <v>3701.5102</v>
+        <v>62614.127</v>
       </c>
       <c r="G46" t="n">
-        <v>15.65499999999998</v>
+        <v>15.65166666666665</v>
       </c>
       <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1578,24 +1718,27 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="C47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E47" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F47" t="n">
-        <v>15260.0246</v>
+        <v>3701.5102</v>
       </c>
       <c r="G47" t="n">
         <v>15.65499999999998</v>
       </c>
       <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1604,24 +1747,27 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="C48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="E48" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F48" t="n">
-        <v>2613.7341</v>
+        <v>15260.0246</v>
       </c>
       <c r="G48" t="n">
-        <v>15.65833333333331</v>
+        <v>15.65499999999998</v>
       </c>
       <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1642,12 +1788,15 @@
         <v>15.8</v>
       </c>
       <c r="F49" t="n">
-        <v>10</v>
+        <v>2613.7341</v>
       </c>
       <c r="G49" t="n">
-        <v>15.66166666666665</v>
+        <v>15.65833333333331</v>
       </c>
       <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1656,24 +1805,27 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E50" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F50" t="n">
-        <v>19200</v>
+        <v>10</v>
       </c>
       <c r="G50" t="n">
-        <v>15.66333333333331</v>
+        <v>15.66166666666665</v>
       </c>
       <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1694,12 +1846,15 @@
         <v>15.7</v>
       </c>
       <c r="F51" t="n">
-        <v>24000</v>
+        <v>19200</v>
       </c>
       <c r="G51" t="n">
-        <v>15.66499999999998</v>
+        <v>15.66333333333331</v>
       </c>
       <c r="H51" t="n">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1708,24 +1863,27 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E52" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>24000</v>
       </c>
       <c r="G52" t="n">
-        <v>15.66833333333331</v>
+        <v>15.66499999999998</v>
       </c>
       <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1746,12 +1904,15 @@
         <v>15.8</v>
       </c>
       <c r="F53" t="n">
-        <v>47261.3734</v>
+        <v>20</v>
       </c>
       <c r="G53" t="n">
-        <v>15.67166666666665</v>
+        <v>15.66833333333331</v>
       </c>
       <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1772,12 +1933,15 @@
         <v>15.8</v>
       </c>
       <c r="F54" t="n">
-        <v>283399.0189</v>
+        <v>47261.3734</v>
       </c>
       <c r="G54" t="n">
-        <v>15.67666666666664</v>
+        <v>15.67166666666665</v>
       </c>
       <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1798,12 +1962,15 @@
         <v>15.8</v>
       </c>
       <c r="F55" t="n">
-        <v>1176.1708</v>
+        <v>283399.0189</v>
       </c>
       <c r="G55" t="n">
-        <v>15.67999999999998</v>
+        <v>15.67666666666664</v>
       </c>
       <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1824,12 +1991,15 @@
         <v>15.8</v>
       </c>
       <c r="F56" t="n">
-        <v>2975.443</v>
+        <v>1176.1708</v>
       </c>
       <c r="G56" t="n">
-        <v>15.68499999999998</v>
+        <v>15.67999999999998</v>
       </c>
       <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1838,7 +2008,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C57" t="n">
         <v>15.8</v>
@@ -1847,15 +2017,18 @@
         <v>15.8</v>
       </c>
       <c r="E57" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F57" t="n">
-        <v>53110.72223924051</v>
+        <v>2975.443</v>
       </c>
       <c r="G57" t="n">
-        <v>15.68999999999997</v>
+        <v>15.68499999999998</v>
       </c>
       <c r="H57" t="n">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1867,21 +2040,24 @@
         <v>15.7</v>
       </c>
       <c r="C58" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D58" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E58" t="n">
         <v>15.7</v>
       </c>
       <c r="F58" t="n">
-        <v>6990.6531</v>
+        <v>53110.72223924051</v>
       </c>
       <c r="G58" t="n">
-        <v>15.69333333333331</v>
+        <v>15.68999999999997</v>
       </c>
       <c r="H58" t="n">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1890,24 +2066,27 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E59" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F59" t="n">
-        <v>113494.0506</v>
+        <v>6990.6531</v>
       </c>
       <c r="G59" t="n">
-        <v>15.69833333333331</v>
+        <v>15.69333333333331</v>
       </c>
       <c r="H59" t="n">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1928,12 +2107,15 @@
         <v>15.8</v>
       </c>
       <c r="F60" t="n">
-        <v>66800</v>
+        <v>113494.0506</v>
       </c>
       <c r="G60" t="n">
-        <v>15.70499999999998</v>
+        <v>15.69833333333331</v>
       </c>
       <c r="H60" t="n">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1954,12 +2136,15 @@
         <v>15.8</v>
       </c>
       <c r="F61" t="n">
-        <v>21000</v>
+        <v>66800</v>
       </c>
       <c r="G61" t="n">
-        <v>15.70999999999997</v>
+        <v>15.70499999999998</v>
       </c>
       <c r="H61" t="n">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1968,24 +2153,27 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E62" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F62" t="n">
-        <v>91.5759</v>
+        <v>21000</v>
       </c>
       <c r="G62" t="n">
-        <v>15.71333333333331</v>
+        <v>15.70999999999997</v>
       </c>
       <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1994,24 +2182,27 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E63" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F63" t="n">
-        <v>149955</v>
+        <v>91.5759</v>
       </c>
       <c r="G63" t="n">
-        <v>15.71833333333331</v>
+        <v>15.71333333333331</v>
       </c>
       <c r="H63" t="n">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2032,12 +2223,15 @@
         <v>15.8</v>
       </c>
       <c r="F64" t="n">
-        <v>15067.9746</v>
+        <v>149955</v>
       </c>
       <c r="G64" t="n">
-        <v>15.72333333333331</v>
+        <v>15.71833333333331</v>
       </c>
       <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2058,12 +2252,15 @@
         <v>15.8</v>
       </c>
       <c r="F65" t="n">
-        <v>51.4873</v>
+        <v>15067.9746</v>
       </c>
       <c r="G65" t="n">
-        <v>15.72999999999997</v>
+        <v>15.72333333333331</v>
       </c>
       <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2084,12 +2281,15 @@
         <v>15.8</v>
       </c>
       <c r="F66" t="n">
-        <v>6200</v>
+        <v>51.4873</v>
       </c>
       <c r="G66" t="n">
-        <v>15.73499999999997</v>
+        <v>15.72999999999997</v>
       </c>
       <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2101,21 +2301,24 @@
         <v>15.8</v>
       </c>
       <c r="C67" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D67" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E67" t="n">
         <v>15.8</v>
       </c>
       <c r="F67" t="n">
-        <v>4400</v>
+        <v>6200</v>
       </c>
       <c r="G67" t="n">
-        <v>15.74333333333331</v>
+        <v>15.73499999999997</v>
       </c>
       <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2124,7 +2327,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C68" t="n">
         <v>15.9</v>
@@ -2133,15 +2336,18 @@
         <v>15.9</v>
       </c>
       <c r="E68" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F68" t="n">
-        <v>299.371</v>
+        <v>4400</v>
       </c>
       <c r="G68" t="n">
-        <v>15.75166666666664</v>
+        <v>15.74333333333331</v>
       </c>
       <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2153,21 +2359,24 @@
         <v>15.9</v>
       </c>
       <c r="C69" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D69" t="n">
         <v>15.9</v>
       </c>
       <c r="E69" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F69" t="n">
-        <v>85.9748</v>
+        <v>299.371</v>
       </c>
       <c r="G69" t="n">
-        <v>15.75666666666664</v>
+        <v>15.75166666666664</v>
       </c>
       <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2179,21 +2388,24 @@
         <v>15.9</v>
       </c>
       <c r="C70" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D70" t="n">
         <v>15.9</v>
       </c>
       <c r="E70" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="F70" t="n">
-        <v>600</v>
+        <v>85.9748</v>
       </c>
       <c r="G70" t="n">
-        <v>15.76499999999997</v>
+        <v>15.75666666666664</v>
       </c>
       <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2214,12 +2426,15 @@
         <v>15.9</v>
       </c>
       <c r="F71" t="n">
-        <v>24401.1320754717</v>
+        <v>600</v>
       </c>
       <c r="G71" t="n">
-        <v>15.77499999999997</v>
+        <v>15.76499999999997</v>
       </c>
       <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2228,24 +2443,27 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="C72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E72" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="F72" t="n">
-        <v>24340.1292</v>
+        <v>24401.1320754717</v>
       </c>
       <c r="G72" t="n">
-        <v>15.77833333333331</v>
+        <v>15.77499999999997</v>
       </c>
       <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2254,24 +2472,27 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E73" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F73" t="n">
-        <v>9134.284900000001</v>
+        <v>24340.1292</v>
       </c>
       <c r="G73" t="n">
-        <v>15.78166666666664</v>
+        <v>15.77833333333331</v>
       </c>
       <c r="H73" t="n">
+        <v>0</v>
+      </c>
+      <c r="I73" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2280,24 +2501,27 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C74" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D74" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E74" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F74" t="n">
-        <v>220898.6008</v>
+        <v>9134.284900000001</v>
       </c>
       <c r="G74" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78166666666664</v>
       </c>
       <c r="H74" t="n">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2309,21 +2533,24 @@
         <v>15.7</v>
       </c>
       <c r="C75" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="D75" t="n">
-        <v>15.7</v>
+        <v>15.9</v>
       </c>
       <c r="E75" t="n">
         <v>15.7</v>
       </c>
       <c r="F75" t="n">
-        <v>15030.3047</v>
+        <v>220898.6008</v>
       </c>
       <c r="G75" t="n">
         <v>15.78499999999997</v>
       </c>
       <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2332,24 +2559,27 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="D76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E76" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F76" t="n">
-        <v>18400</v>
+        <v>15030.3047</v>
       </c>
       <c r="G76" t="n">
         <v>15.78499999999997</v>
       </c>
       <c r="H76" t="n">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2358,24 +2588,27 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E77" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F77" t="n">
-        <v>100000</v>
+        <v>18400</v>
       </c>
       <c r="G77" t="n">
-        <v>15.78333333333331</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H77" t="n">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2384,24 +2617,27 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C78" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="D78" t="n">
-        <v>15.9</v>
+        <v>15.7</v>
       </c>
       <c r="E78" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F78" t="n">
-        <v>430800</v>
+        <v>100000</v>
       </c>
       <c r="G78" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78333333333331</v>
       </c>
       <c r="H78" t="n">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2410,7 +2646,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C79" t="n">
         <v>15.9</v>
@@ -2419,15 +2655,18 @@
         <v>15.9</v>
       </c>
       <c r="E79" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F79" t="n">
-        <v>248281</v>
+        <v>430800</v>
       </c>
       <c r="G79" t="n">
-        <v>15.78666666666664</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H79" t="n">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2448,12 +2687,15 @@
         <v>15.9</v>
       </c>
       <c r="F80" t="n">
-        <v>326566.4654852878</v>
+        <v>248281</v>
       </c>
       <c r="G80" t="n">
         <v>15.78666666666664</v>
       </c>
       <c r="H80" t="n">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2462,24 +2704,27 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="C81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="D81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="E81" t="n">
-        <v>16</v>
+        <v>15.9</v>
       </c>
       <c r="F81" t="n">
-        <v>8002.6875</v>
+        <v>326566.4654852878</v>
       </c>
       <c r="G81" t="n">
-        <v>15.79166666666664</v>
+        <v>15.78666666666664</v>
       </c>
       <c r="H81" t="n">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2488,24 +2733,27 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="C82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="D82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="E82" t="n">
-        <v>15.8</v>
+        <v>16</v>
       </c>
       <c r="F82" t="n">
-        <v>21000</v>
+        <v>8002.6875</v>
       </c>
       <c r="G82" t="n">
         <v>15.79166666666664</v>
       </c>
       <c r="H82" t="n">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2514,24 +2762,27 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E83" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F83" t="n">
-        <v>3170</v>
+        <v>21000</v>
       </c>
       <c r="G83" t="n">
-        <v>15.79333333333331</v>
+        <v>15.79166666666664</v>
       </c>
       <c r="H83" t="n">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2540,24 +2791,27 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E84" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F84" t="n">
-        <v>65844.689</v>
+        <v>3170</v>
       </c>
       <c r="G84" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79333333333331</v>
       </c>
       <c r="H84" t="n">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2566,24 +2820,27 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E85" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F85" t="n">
-        <v>3144.654088050314</v>
+        <v>65844.689</v>
       </c>
       <c r="G85" t="n">
-        <v>15.79833333333331</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2592,24 +2849,27 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E86" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F86" t="n">
-        <v>310479.1675</v>
+        <v>3144.654088050314</v>
       </c>
       <c r="G86" t="n">
-        <v>15.79999999999997</v>
+        <v>15.79833333333331</v>
       </c>
       <c r="H86" t="n">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2630,12 +2890,15 @@
         <v>15.8</v>
       </c>
       <c r="F87" t="n">
-        <v>33364</v>
+        <v>310479.1675</v>
       </c>
       <c r="G87" t="n">
-        <v>15.80166666666664</v>
+        <v>15.79999999999997</v>
       </c>
       <c r="H87" t="n">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2656,12 +2919,15 @@
         <v>15.8</v>
       </c>
       <c r="F88" t="n">
-        <v>316.4556962025317</v>
+        <v>33364</v>
       </c>
       <c r="G88" t="n">
         <v>15.80166666666664</v>
       </c>
       <c r="H88" t="n">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2682,12 +2948,15 @@
         <v>15.8</v>
       </c>
       <c r="F89" t="n">
-        <v>49347.184</v>
+        <v>316.4556962025317</v>
       </c>
       <c r="G89" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80166666666664</v>
       </c>
       <c r="H89" t="n">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2708,12 +2977,15 @@
         <v>15.8</v>
       </c>
       <c r="F90" t="n">
-        <v>148771.4868</v>
+        <v>49347.184</v>
       </c>
       <c r="G90" t="n">
-        <v>15.80166666666663</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H90" t="n">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2722,24 +2994,27 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C91" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="D91" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="E91" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F91" t="n">
-        <v>153417.2923</v>
+        <v>148771.4868</v>
       </c>
       <c r="G91" t="n">
-        <v>15.7983333333333</v>
+        <v>15.80166666666663</v>
       </c>
       <c r="H91" t="n">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2748,24 +3023,27 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C92" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="D92" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="E92" t="n">
-        <v>15.8</v>
+        <v>15.6</v>
       </c>
       <c r="F92" t="n">
-        <v>25569.4629</v>
+        <v>153417.2923</v>
       </c>
       <c r="G92" t="n">
         <v>15.7983333333333</v>
       </c>
       <c r="H92" t="n">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2786,12 +3064,15 @@
         <v>15.8</v>
       </c>
       <c r="F93" t="n">
-        <v>1258.846</v>
+        <v>25569.4629</v>
       </c>
       <c r="G93" t="n">
-        <v>15.79666666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H93" t="n">
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2812,12 +3093,15 @@
         <v>15.8</v>
       </c>
       <c r="F94" t="n">
-        <v>6444.6475</v>
+        <v>1258.846</v>
       </c>
       <c r="G94" t="n">
         <v>15.79666666666663</v>
       </c>
       <c r="H94" t="n">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2838,12 +3122,15 @@
         <v>15.8</v>
       </c>
       <c r="F95" t="n">
-        <v>33999.6077</v>
+        <v>6444.6475</v>
       </c>
       <c r="G95" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79666666666663</v>
       </c>
       <c r="H95" t="n">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2864,12 +3151,15 @@
         <v>15.8</v>
       </c>
       <c r="F96" t="n">
-        <v>11253.5568</v>
+        <v>33999.6077</v>
       </c>
       <c r="G96" t="n">
         <v>15.79499999999997</v>
       </c>
       <c r="H96" t="n">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2890,12 +3180,15 @@
         <v>15.8</v>
       </c>
       <c r="F97" t="n">
-        <v>2732.3626</v>
+        <v>11253.5568</v>
       </c>
       <c r="G97" t="n">
         <v>15.79499999999997</v>
       </c>
       <c r="H97" t="n">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2916,12 +3209,15 @@
         <v>15.8</v>
       </c>
       <c r="F98" t="n">
-        <v>45.5505</v>
+        <v>2732.3626</v>
       </c>
       <c r="G98" t="n">
         <v>15.79499999999997</v>
       </c>
       <c r="H98" t="n">
+        <v>0</v>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2930,24 +3226,27 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E99" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F99" t="n">
-        <v>1000</v>
+        <v>45.5505</v>
       </c>
       <c r="G99" t="n">
-        <v>15.7983333333333</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H99" t="n">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2956,24 +3255,27 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E100" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F100" t="n">
-        <v>45788.4711</v>
+        <v>1000</v>
       </c>
       <c r="G100" t="n">
         <v>15.7983333333333</v>
       </c>
       <c r="H100" t="n">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2994,12 +3296,15 @@
         <v>15.8</v>
       </c>
       <c r="F101" t="n">
-        <v>15361.0995</v>
+        <v>45788.4711</v>
       </c>
       <c r="G101" t="n">
         <v>15.7983333333333</v>
       </c>
       <c r="H101" t="n">
+        <v>0</v>
+      </c>
+      <c r="I101" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3008,24 +3313,27 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="C102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E102" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="F102" t="n">
-        <v>185233.9067</v>
+        <v>15361.0995</v>
       </c>
       <c r="G102" t="n">
-        <v>15.80166666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H102" t="n">
+        <v>0</v>
+      </c>
+      <c r="I102" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3034,24 +3342,27 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="C103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E103" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="F103" t="n">
-        <v>17553.2911</v>
+        <v>185233.9067</v>
       </c>
       <c r="G103" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80166666666663</v>
       </c>
       <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3063,21 +3374,24 @@
         <v>15.8</v>
       </c>
       <c r="C104" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="D104" t="n">
-        <v>15.9</v>
+        <v>15.8</v>
       </c>
       <c r="E104" t="n">
         <v>15.8</v>
       </c>
       <c r="F104" t="n">
-        <v>17800.1257</v>
+        <v>17553.2911</v>
       </c>
       <c r="G104" t="n">
-        <v>15.80499999999996</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3089,21 +3403,24 @@
         <v>15.8</v>
       </c>
       <c r="C105" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="D105" t="n">
-        <v>15.8</v>
+        <v>15.9</v>
       </c>
       <c r="E105" t="n">
         <v>15.8</v>
       </c>
       <c r="F105" t="n">
-        <v>50000</v>
+        <v>17800.1257</v>
       </c>
       <c r="G105" t="n">
         <v>15.80499999999996</v>
       </c>
       <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3124,12 +3441,15 @@
         <v>15.8</v>
       </c>
       <c r="F106" t="n">
-        <v>27753.8607</v>
+        <v>50000</v>
       </c>
       <c r="G106" t="n">
         <v>15.80499999999996</v>
       </c>
       <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3150,12 +3470,15 @@
         <v>15.8</v>
       </c>
       <c r="F107" t="n">
-        <v>15252.5683</v>
+        <v>27753.8607</v>
       </c>
       <c r="G107" t="n">
-        <v>15.8083333333333</v>
+        <v>15.80499999999996</v>
       </c>
       <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3164,7 +3487,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C108" t="n">
         <v>15.8</v>
@@ -3173,15 +3496,18 @@
         <v>15.8</v>
       </c>
       <c r="E108" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="F108" t="n">
-        <v>120755.7459</v>
+        <v>15252.5683</v>
       </c>
       <c r="G108" t="n">
         <v>15.8083333333333</v>
       </c>
       <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3190,7 +3516,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="C109" t="n">
         <v>15.8</v>
@@ -3199,15 +3525,18 @@
         <v>15.8</v>
       </c>
       <c r="E109" t="n">
-        <v>15.8</v>
+        <v>15.7</v>
       </c>
       <c r="F109" t="n">
-        <v>2263.8405</v>
+        <v>120755.7459</v>
       </c>
       <c r="G109" t="n">
         <v>15.8083333333333</v>
       </c>
       <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3216,24 +3545,27 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="C110" t="n">
-        <v>15.7</v>
+        <v>15.8</v>
       </c>
       <c r="D110" t="n">
         <v>15.8</v>
       </c>
       <c r="E110" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="F110" t="n">
-        <v>49180.8624</v>
+        <v>2263.8405</v>
       </c>
       <c r="G110" t="n">
         <v>15.8083333333333</v>
       </c>
       <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3242,24 +3574,27 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C111" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D111" t="n">
-        <v>15.6</v>
+        <v>15.8</v>
       </c>
       <c r="E111" t="n">
         <v>15.6</v>
       </c>
       <c r="F111" t="n">
-        <v>1104.5343</v>
+        <v>49180.8624</v>
       </c>
       <c r="G111" t="n">
-        <v>15.80666666666663</v>
+        <v>15.8083333333333</v>
       </c>
       <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3280,12 +3615,15 @@
         <v>15.6</v>
       </c>
       <c r="F112" t="n">
-        <v>2975.443</v>
+        <v>1104.5343</v>
       </c>
       <c r="G112" t="n">
-        <v>15.8033333333333</v>
+        <v>15.80666666666663</v>
       </c>
       <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3306,12 +3644,15 @@
         <v>15.6</v>
       </c>
       <c r="F113" t="n">
-        <v>84967.664</v>
+        <v>2975.443</v>
       </c>
       <c r="G113" t="n">
-        <v>15.79999999999996</v>
+        <v>15.8033333333333</v>
       </c>
       <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3320,24 +3661,27 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E114" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F114" t="n">
-        <v>21000</v>
+        <v>84967.664</v>
       </c>
       <c r="G114" t="n">
-        <v>15.7983333333333</v>
+        <v>15.79999999999996</v>
       </c>
       <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3358,12 +3702,15 @@
         <v>15.7</v>
       </c>
       <c r="F115" t="n">
-        <v>2420</v>
+        <v>21000</v>
       </c>
       <c r="G115" t="n">
-        <v>15.79666666666663</v>
+        <v>15.7983333333333</v>
       </c>
       <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3384,12 +3731,15 @@
         <v>15.7</v>
       </c>
       <c r="F116" t="n">
-        <v>2410</v>
+        <v>2420</v>
       </c>
       <c r="G116" t="n">
-        <v>15.79499999999997</v>
+        <v>15.79666666666663</v>
       </c>
       <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3410,12 +3760,15 @@
         <v>15.7</v>
       </c>
       <c r="F117" t="n">
-        <v>2878</v>
+        <v>2410</v>
       </c>
       <c r="G117" t="n">
-        <v>15.7933333333333</v>
+        <v>15.79499999999997</v>
       </c>
       <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3436,12 +3789,15 @@
         <v>15.7</v>
       </c>
       <c r="F118" t="n">
-        <v>19800</v>
+        <v>2878</v>
       </c>
       <c r="G118" t="n">
         <v>15.7933333333333</v>
       </c>
       <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3462,12 +3818,15 @@
         <v>15.7</v>
       </c>
       <c r="F119" t="n">
-        <v>3461.538</v>
+        <v>19800</v>
       </c>
       <c r="G119" t="n">
-        <v>15.79166666666664</v>
+        <v>15.7933333333333</v>
       </c>
       <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3488,12 +3847,15 @@
         <v>15.7</v>
       </c>
       <c r="F120" t="n">
-        <v>3149.846</v>
+        <v>3461.538</v>
       </c>
       <c r="G120" t="n">
-        <v>15.78999999999997</v>
+        <v>15.79166666666664</v>
       </c>
       <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3502,24 +3864,27 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="C121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="D121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="E121" t="n">
-        <v>15.6</v>
+        <v>15.7</v>
       </c>
       <c r="F121" t="n">
-        <v>33950.705</v>
+        <v>3149.846</v>
       </c>
       <c r="G121" t="n">
-        <v>15.78666666666664</v>
+        <v>15.78999999999997</v>
       </c>
       <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3540,12 +3905,15 @@
         <v>15.6</v>
       </c>
       <c r="F122" t="n">
-        <v>128.8652</v>
+        <v>33950.705</v>
       </c>
       <c r="G122" t="n">
-        <v>15.78499999999997</v>
+        <v>15.78666666666664</v>
       </c>
       <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3566,12 +3934,15 @@
         <v>15.6</v>
       </c>
       <c r="F123" t="n">
-        <v>18939.8733</v>
+        <v>128.8652</v>
       </c>
       <c r="G123" t="n">
-        <v>15.78166666666664</v>
+        <v>15.78499999999997</v>
       </c>
       <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3580,544 +3951,27 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="C124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="D124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="E124" t="n">
-        <v>15.7</v>
+        <v>15.6</v>
       </c>
       <c r="F124" t="n">
-        <v>51400</v>
+        <v>18939.8733</v>
       </c>
       <c r="G124" t="n">
-        <v>15.77999999999998</v>
+        <v>15.78166666666664</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C125" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D125" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E125" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F125" t="n">
-        <v>25863.523</v>
-      </c>
-      <c r="G125" t="n">
-        <v>15.77499999999998</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E126" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F126" t="n">
-        <v>64516</v>
-      </c>
-      <c r="G126" t="n">
-        <v>15.77166666666665</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E127" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F127" t="n">
-        <v>41718</v>
-      </c>
-      <c r="G127" t="n">
-        <v>15.76666666666665</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E128" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F128" t="n">
-        <v>140</v>
-      </c>
-      <c r="G128" t="n">
-        <v>15.76333333333331</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E129" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F129" t="n">
-        <v>63689.205</v>
-      </c>
-      <c r="G129" t="n">
-        <v>15.76166666666665</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E130" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F130" t="n">
-        <v>123942.3763</v>
-      </c>
-      <c r="G130" t="n">
-        <v>15.75666666666665</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E131" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F131" t="n">
-        <v>93852.272</v>
-      </c>
-      <c r="G131" t="n">
-        <v>15.75166666666665</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E132" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F132" t="n">
-        <v>2977.8265</v>
-      </c>
-      <c r="G132" t="n">
-        <v>15.74999999999998</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E133" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F133" t="n">
-        <v>36692.3119</v>
-      </c>
-      <c r="G133" t="n">
-        <v>15.74666666666665</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E134" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F134" t="n">
-        <v>8645.484200000001</v>
-      </c>
-      <c r="G134" t="n">
-        <v>15.74166666666665</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C135" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D135" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E135" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F135" t="n">
-        <v>296611.1879</v>
-      </c>
-      <c r="G135" t="n">
-        <v>15.73833333333332</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E136" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F136" t="n">
-        <v>4974.5008</v>
-      </c>
-      <c r="G136" t="n">
-        <v>15.73333333333332</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="C137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="E137" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F137" t="n">
-        <v>18030.6926</v>
-      </c>
-      <c r="G137" t="n">
-        <v>15.72999999999998</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E138" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F138" t="n">
-        <v>12731.5923566879</v>
-      </c>
-      <c r="G138" t="n">
-        <v>15.72666666666665</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C139" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D139" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E139" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F139" t="n">
-        <v>12699.7633</v>
-      </c>
-      <c r="G139" t="n">
-        <v>15.71999999999998</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="D140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E140" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="F140" t="n">
-        <v>2480</v>
-      </c>
-      <c r="G140" t="n">
-        <v>15.71499999999998</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E141" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F141" t="n">
-        <v>57982.8662</v>
-      </c>
-      <c r="G141" t="n">
-        <v>15.70999999999998</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="C142" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D142" t="n">
-        <v>15.6</v>
-      </c>
-      <c r="E142" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F142" t="n">
-        <v>149580.1125</v>
-      </c>
-      <c r="G142" t="n">
-        <v>15.70499999999999</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="D143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E143" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="F143" t="n">
-        <v>63.3121</v>
-      </c>
-      <c r="G143" t="n">
-        <v>15.70166666666665</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="C144" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="D144" t="n">
-        <v>15.7</v>
-      </c>
-      <c r="E144" t="n">
-        <v>15.5</v>
-      </c>
-      <c r="F144" t="n">
-        <v>53865.0318</v>
-      </c>
-      <c r="G144" t="n">
-        <v>15.69666666666665</v>
-      </c>
-      <c r="H144" t="n">
+      <c r="I124" t="n">
         <v>0</v>
       </c>
     </row>
